--- a/resistance_assay/20241206_Sink_Isolates_AR_22-7-Batch_2xlsx.xlsx
+++ b/resistance_assay/20241206_Sink_Isolates_AR_22-7-Batch_2xlsx.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tecan\Documents\Zhengqing\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iridashyti/Documents/Duke_you_lab/sink_microbe_isolates/resistance_assay/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C86C0F81-8609-A64E-90FC-DCF9C7B7D262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17520" windowHeight="7290" activeTab="1"/>
+    <workbookView xWindow="15160" yWindow="820" windowWidth="17400" windowHeight="16540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -25,12 +26,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tecan</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -38,7 +39,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
 Tecan.At.Common.DocumentManagement, 3.9.1.0
@@ -95,7 +96,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +104,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">EHC, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
 MTP, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
@@ -120,12 +121,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Tecan</author>
   </authors>
   <commentList>
-    <comment ref="E1" authorId="0" shapeId="0">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +134,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Tecan.At.Common, 3.9.1.0
 Tecan.At.Common.DocumentManagement, 3.9.1.0
@@ -190,7 +191,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E3" authorId="0" shapeId="0">
+    <comment ref="E3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -198,7 +199,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">EHC, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
 MTP, V_5.23_05/17_InfiniteRX (May  9 2017/12.19.53)
@@ -215,7 +216,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="71">
   <si>
     <t>Application: Tecan i-control</t>
   </si>
@@ -422,12 +423,18 @@
   </si>
   <si>
     <t>22-7-p</t>
+  </si>
+  <si>
+    <t>STREP+LB</t>
+  </si>
+  <si>
+    <t>ß</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,7 +462,7 @@
       <sz val="9"/>
       <color indexed="81"/>
       <name val="Tahoma"/>
-      <charset val="1"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="10">
@@ -542,13 +549,13 @@
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6"/>
-    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7"/>
-    <cellStyle name="Tecan.At.Excel.Error" xfId="1"/>
-    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5"/>
-    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3"/>
-    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4"/>
-    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2"/>
+    <cellStyle name="Tecan.At.Excel.Attenuation" xfId="6" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Tecan.At.Excel.AutoGain_0" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Tecan.At.Excel.Error" xfId="1" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorAndMeasurementBlank" xfId="5" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorBlank" xfId="3" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="Tecan.At.Excel.GFactorReference" xfId="4" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Tecan.At.Excel.MeasurementBlank" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -825,16 +832,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -842,7 +849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -853,7 +860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -861,7 +868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -869,7 +876,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -877,7 +884,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -885,7 +892,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -893,7 +900,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -901,12 +908,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -926,7 +933,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -946,7 +953,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -966,12 +973,12 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -979,7 +986,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -990,7 +997,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1001,7 +1008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1009,7 +1016,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1020,7 +1027,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1028,12 +1035,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
@@ -1074,7 +1081,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
@@ -1118,7 +1125,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
@@ -1162,7 +1169,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -1206,7 +1213,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
@@ -1250,7 +1257,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -1294,7 +1301,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -1338,7 +1345,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
@@ -1382,27 +1389,27 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
       <c r="B37">
-        <v>0.99930000305175781</v>
+        <v>0.99930000305175803</v>
       </c>
       <c r="C37">
-        <v>3.8699999451637268E-2</v>
+        <v>3.8699999451637303E-2</v>
       </c>
       <c r="D37">
-        <v>4.960000142455101E-2</v>
+        <v>4.9600001424551003E-2</v>
       </c>
       <c r="E37">
-        <v>5.2000001072883606E-2</v>
+        <v>5.2000001072883599E-2</v>
       </c>
       <c r="F37">
-        <v>0.61269998550415039</v>
-      </c>
-      <c r="G37">
-        <v>3.8899999111890793E-2</v>
+        <v>0.61269998550414995</v>
+      </c>
+      <c r="G37" t="s">
+        <v>70</v>
       </c>
       <c r="H37">
         <v>3.7500001490116119E-2</v>
@@ -1423,10 +1430,10 @@
         <v>4.2500000447034836E-2</v>
       </c>
       <c r="N37" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>51</v>
       </c>
@@ -1455,7 +1462,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -1463,37 +1470,37 @@
         <v>46</v>
       </c>
     </row>
-    <row r="59" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N59" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N61" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N62" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N65" t="s">
         <v>60</v>
       </c>
@@ -1553,16 +1560,16 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:N65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="N39" sqref="N39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1570,7 +1577,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -1581,7 +1588,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>5</v>
       </c>
@@ -1589,7 +1596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1597,7 +1604,7 @@
         <v>45632</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1605,7 +1612,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1613,7 +1620,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -1621,7 +1628,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>14</v>
       </c>
@@ -1629,12 +1636,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>17</v>
       </c>
@@ -1654,7 +1661,7 @@
       <c r="K14" s="3"/>
       <c r="L14" s="3"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>20</v>
       </c>
@@ -1674,7 +1681,7 @@
       <c r="K16" s="3"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>22</v>
       </c>
@@ -1694,12 +1701,12 @@
       <c r="K17" s="3"/>
       <c r="L17" s="3"/>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>25</v>
       </c>
@@ -1707,7 +1714,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>27</v>
       </c>
@@ -1718,7 +1725,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>29</v>
       </c>
@@ -1729,7 +1736,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>30</v>
       </c>
@@ -1737,7 +1744,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>31</v>
       </c>
@@ -1748,7 +1755,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>33</v>
       </c>
@@ -1756,12 +1763,12 @@
         <v>62</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B28" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A29" s="4" t="s">
         <v>36</v>
       </c>
@@ -1802,7 +1809,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
         <v>37</v>
       </c>
@@ -1846,7 +1853,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
         <v>38</v>
       </c>
@@ -1890,7 +1897,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
         <v>39</v>
       </c>
@@ -1934,7 +1941,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
         <v>40</v>
       </c>
@@ -1978,7 +1985,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
         <v>41</v>
       </c>
@@ -2022,7 +2029,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
         <v>42</v>
       </c>
@@ -2051,7 +2058,7 @@
         <v>1.4615999460220337</v>
       </c>
       <c r="J35">
-        <v>1.3208999633789063</v>
+        <v>1.3208999633789062</v>
       </c>
       <c r="K35">
         <v>1.4857000112533569</v>
@@ -2066,7 +2073,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
         <v>43</v>
       </c>
@@ -2110,7 +2117,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A37" s="4" t="s">
         <v>44</v>
       </c>
@@ -2151,7 +2158,7 @@
         <v>4.2399998754262924E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.2">
       <c r="B38" t="s">
         <v>54</v>
       </c>
@@ -2162,7 +2169,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>45</v>
       </c>
@@ -2170,42 +2177,66 @@
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N59" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="60" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N60" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="61" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N61" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="62" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N62" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N63" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="64" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N64" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="65" spans="14:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="14:14" x14ac:dyDescent="0.2">
       <c r="N65" t="s">
         <v>60</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="A31:XFD31">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A36:XFD36">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="N31">
     <cfRule type="colorScale" priority="6">
       <colorScale>
@@ -2254,30 +2285,6 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A31:XFD31">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="A36:XFD36">
-    <cfRule type="colorScale" priority="1">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
 </worksheet>
